--- a/data/Continents GDP.xlsx
+++ b/data/Continents GDP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abdullah\Desktop\Sample_Choroplet_Map\Original\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96CFD1C3-6592-40E7-8294-6290CCCD3BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F38F4F12-81BE-451D-AFA7-D973EC9C32B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5824CE39-3D94-489E-91CA-0A328172933B}"/>
   </bookViews>
@@ -69,6 +69,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -114,22 +118,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -151,6 +158,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="33" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -698,24 +706,24 @@
             <c:numRef>
               <c:f>Sheet1!$D$12:$D$17</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0" formatCode="General">
+                <c:pt idx="0">
                   <c:v>38435</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>31603</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="General">
+                <c:pt idx="2">
                   <c:v>25440</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="General">
+                <c:pt idx="3">
                   <c:v>4100</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="General">
+                <c:pt idx="4">
                   <c:v>2858</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="General">
+                <c:pt idx="5">
                   <c:v>1979</c:v>
                 </c:pt>
               </c:numCache>
@@ -1619,8 +1627,8 @@
   <autoFilter ref="C11:E17" xr:uid="{CC370AC4-5966-4FE2-8F0E-9A45AC24C82A}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{61CC223D-2F6D-477E-A75D-6BC38D2AB798}" name="Continent Name" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{6E4F6577-B3E0-44CC-813D-02A95A2ACEC8}" name="GDP in $ Billion" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{6657911C-65F6-4986-8840-EED2F4F98BA1}" name="Share" dataDxfId="0" dataCellStyle="Percent"/>
+    <tableColumn id="2" xr3:uid="{6E4F6577-B3E0-44CC-813D-02A95A2ACEC8}" name="GDP in $ Billion" dataDxfId="0" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{6657911C-65F6-4986-8840-EED2F4F98BA1}" name="Share" dataDxfId="1" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1946,7 +1954,7 @@
   <dimension ref="C11:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1971,10 +1979,10 @@
       <c r="C12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="4">
         <v>38435</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <f>3680%/100</f>
         <v>0.36799999999999999</v>
       </c>
@@ -1983,10 +1991,10 @@
       <c r="C13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="5">
         <v>31603</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <f>3020%/100</f>
         <v>0.30199999999999999</v>
       </c>
@@ -1995,10 +2003,10 @@
       <c r="C14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="4">
         <v>25440</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <f>2440%/100</f>
         <v>0.24399999999999999</v>
       </c>
@@ -2007,10 +2015,10 @@
       <c r="C15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="4">
         <v>4100</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <f>390%/100</f>
         <v>3.9E-2</v>
       </c>
@@ -2019,10 +2027,10 @@
       <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="4">
         <v>2858</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <f>270%/100</f>
         <v>2.7000000000000003E-2</v>
       </c>
@@ -2031,19 +2039,20 @@
       <c r="C17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="4">
         <v>1979</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <f>190%/100</f>
         <v>1.9E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>